--- a/Customisations/Customisations.xlsx
+++ b/Customisations/Customisations.xlsx
@@ -5855,7 +5855,7 @@
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
       <c r="T40" s="27">
-        <v>0.0</v>
+        <v>-1000000.0</v>
       </c>
       <c r="U40" s="17">
         <v>1000000.0</v>
